--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Agrp-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>Agrp</t>
-  </si>
-  <si>
-    <t>Sdc3</t>
-  </si>
-  <si>
     <t>ECs</t>
   </si>
   <si>
@@ -97,7 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
+  </si>
+  <si>
+    <t>Agrp</t>
+  </si>
+  <si>
+    <t>Sdc3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.80047313623929</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H2">
-        <v>2.80047313623929</v>
+        <v>0.671849</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.2304331394294</v>
+        <v>23.92603766666666</v>
       </c>
       <c r="N2">
-        <v>21.2304331394294</v>
+        <v>71.77811299999999</v>
       </c>
       <c r="O2">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="P2">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="Q2">
-        <v>59.45525767769641</v>
+        <v>5.358228160104111</v>
       </c>
       <c r="R2">
-        <v>59.45525767769641</v>
+        <v>48.224053440937</v>
       </c>
       <c r="S2">
-        <v>0.09800893768664815</v>
+        <v>0.00468691071321703</v>
       </c>
       <c r="T2">
-        <v>0.09800893768664815</v>
+        <v>0.00468691071321703</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.80047313623929</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H3">
-        <v>2.80047313623929</v>
+        <v>0.671849</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.943033876702589</v>
+        <v>9.093559666666666</v>
       </c>
       <c r="N3">
-        <v>8.943033876702589</v>
+        <v>27.280679</v>
       </c>
       <c r="O3">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="P3">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="Q3">
-        <v>25.04472612818352</v>
+        <v>2.036499656163445</v>
       </c>
       <c r="R3">
-        <v>25.04472612818352</v>
+        <v>18.328496905471</v>
       </c>
       <c r="S3">
-        <v>0.04128494431531342</v>
+        <v>0.001781352299815055</v>
       </c>
       <c r="T3">
-        <v>0.04128494431531342</v>
+        <v>0.001781352299815054</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.80047313623929</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H4">
-        <v>2.80047313623929</v>
+        <v>0.671849</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.1409037148841</v>
+        <v>93.71576166666667</v>
       </c>
       <c r="N4">
-        <v>83.1409037148841</v>
+        <v>281.147285</v>
       </c>
       <c r="O4">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="P4">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="Q4">
-        <v>232.8338673761903</v>
+        <v>20.98761358666278</v>
       </c>
       <c r="R4">
-        <v>232.8338673761903</v>
+        <v>188.888522279965</v>
       </c>
       <c r="S4">
-        <v>0.3838146682118372</v>
+        <v>0.01835813407435749</v>
       </c>
       <c r="T4">
-        <v>0.3838146682118372</v>
+        <v>0.01835813407435748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.80047313623929</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H5">
-        <v>2.80047313623929</v>
+        <v>0.671849</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.0555014134716</v>
+        <v>86.782706</v>
       </c>
       <c r="N5">
-        <v>84.0555014134716</v>
+        <v>260.348118</v>
       </c>
       <c r="O5">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="P5">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="Q5">
-        <v>235.3951736615509</v>
+        <v>19.43495808113133</v>
       </c>
       <c r="R5">
-        <v>235.3951736615509</v>
+        <v>174.914622730182</v>
       </c>
       <c r="S5">
-        <v>0.3880368500326469</v>
+        <v>0.0170000064423551</v>
       </c>
       <c r="T5">
-        <v>0.3880368500326469</v>
+        <v>0.01700000644235509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.80047313623929</v>
+        <v>0.2239496666666667</v>
       </c>
       <c r="H6">
-        <v>2.80047313623929</v>
+        <v>0.671849</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.04591675498971699</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.7722314565467</v>
+        <v>15.04680066666666</v>
       </c>
       <c r="N6">
-        <v>13.7722314565467</v>
+        <v>45.14040199999999</v>
       </c>
       <c r="O6">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="P6">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="Q6">
-        <v>38.56876422012874</v>
+        <v>3.369725993699777</v>
       </c>
       <c r="R6">
-        <v>38.56876422012874</v>
+        <v>30.327533943298</v>
       </c>
       <c r="S6">
-        <v>0.06357862629396448</v>
+        <v>0.002947542431670271</v>
       </c>
       <c r="T6">
-        <v>0.06357862629396448</v>
+        <v>0.00294754243167027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1921 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.2239496666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.671849</v>
+      </c>
+      <c r="I7">
+        <v>0.04591675498971699</v>
+      </c>
+      <c r="J7">
+        <v>0.04591675498971699</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N7">
+        <v>17.501651</v>
+      </c>
+      <c r="O7">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P7">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q7">
+        <v>1.306496302522111</v>
+      </c>
+      <c r="R7">
+        <v>11.758466722699</v>
+      </c>
+      <c r="S7">
+        <v>0.001142809028302062</v>
+      </c>
+      <c r="T7">
+        <v>0.001142809028302061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H8">
+        <v>2.220611</v>
+      </c>
+      <c r="I8">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J8">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>23.92603766666666</v>
+      </c>
+      <c r="N8">
+        <v>71.77811299999999</v>
+      </c>
+      <c r="O8">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="P8">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="Q8">
+        <v>17.71014080967144</v>
+      </c>
+      <c r="R8">
+        <v>159.391267287043</v>
+      </c>
+      <c r="S8">
+        <v>0.01549128671143007</v>
+      </c>
+      <c r="T8">
+        <v>0.01549128671143007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.220611</v>
+      </c>
+      <c r="I9">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J9">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.093559666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.280679</v>
+      </c>
+      <c r="O9">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="P9">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="Q9">
+        <v>6.731086208318777</v>
+      </c>
+      <c r="R9">
+        <v>60.57977587486899</v>
+      </c>
+      <c r="S9">
+        <v>0.005887767209364913</v>
+      </c>
+      <c r="T9">
+        <v>0.005887767209364913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.80047313623929</v>
-      </c>
-      <c r="H7">
-        <v>2.80047313623929</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.47521355943555</v>
-      </c>
-      <c r="N7">
-        <v>5.47521355943555</v>
-      </c>
-      <c r="O7">
-        <v>0.02527597345958964</v>
-      </c>
-      <c r="P7">
-        <v>0.02527597345958964</v>
-      </c>
-      <c r="Q7">
-        <v>15.33318848837236</v>
-      </c>
-      <c r="R7">
-        <v>15.33318848837236</v>
-      </c>
-      <c r="S7">
-        <v>0.02527597345958964</v>
-      </c>
-      <c r="T7">
-        <v>0.02527597345958964</v>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.220611</v>
+      </c>
+      <c r="I10">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J10">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>93.71576166666667</v>
+      </c>
+      <c r="N10">
+        <v>281.147285</v>
+      </c>
+      <c r="O10">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="P10">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="Q10">
+        <v>69.3687504101261</v>
+      </c>
+      <c r="R10">
+        <v>624.318753691135</v>
+      </c>
+      <c r="S10">
+        <v>0.06067773333739135</v>
+      </c>
+      <c r="T10">
+        <v>0.06067773333739135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H11">
+        <v>2.220611</v>
+      </c>
+      <c r="I11">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J11">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>86.782706</v>
+      </c>
+      <c r="N11">
+        <v>260.348118</v>
+      </c>
+      <c r="O11">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="P11">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="Q11">
+        <v>64.23687718445532</v>
+      </c>
+      <c r="R11">
+        <v>578.1318946600979</v>
+      </c>
+      <c r="S11">
+        <v>0.05618881818081828</v>
+      </c>
+      <c r="T11">
+        <v>0.05618881818081827</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H12">
+        <v>2.220611</v>
+      </c>
+      <c r="I12">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J12">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>15.04680066666666</v>
+      </c>
+      <c r="N12">
+        <v>45.14040199999999</v>
+      </c>
+      <c r="O12">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="P12">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="Q12">
+        <v>11.13769702506911</v>
+      </c>
+      <c r="R12">
+        <v>100.239273225622</v>
+      </c>
+      <c r="S12">
+        <v>0.009742286059417743</v>
+      </c>
+      <c r="T12">
+        <v>0.009742286059417743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.7402036666666666</v>
+      </c>
+      <c r="H13">
+        <v>2.220611</v>
+      </c>
+      <c r="I13">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="J13">
+        <v>0.1517651305791486</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N13">
+        <v>17.501651</v>
+      </c>
+      <c r="O13">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P13">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q13">
+        <v>4.318262080973445</v>
+      </c>
+      <c r="R13">
+        <v>38.864358728761</v>
+      </c>
+      <c r="S13">
+        <v>0.003777239080726278</v>
+      </c>
+      <c r="T13">
+        <v>0.003777239080726278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.350005</v>
+      </c>
+      <c r="I14">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J14">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.92603766666666</v>
+      </c>
+      <c r="N14">
+        <v>71.77811299999999</v>
+      </c>
+      <c r="O14">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="P14">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="Q14">
+        <v>2.791410937840555</v>
+      </c>
+      <c r="R14">
+        <v>25.122698440565</v>
+      </c>
+      <c r="S14">
+        <v>0.002441682854599064</v>
+      </c>
+      <c r="T14">
+        <v>0.002441682854599064</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.350005</v>
+      </c>
+      <c r="I15">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J15">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>9.093559666666666</v>
+      </c>
+      <c r="N15">
+        <v>27.280679</v>
+      </c>
+      <c r="O15">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="P15">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="Q15">
+        <v>1.060930450377222</v>
+      </c>
+      <c r="R15">
+        <v>9.548374053394999</v>
+      </c>
+      <c r="S15">
+        <v>0.0009280094361929067</v>
+      </c>
+      <c r="T15">
+        <v>0.0009280094361929067</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.350005</v>
+      </c>
+      <c r="I16">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J16">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>93.71576166666667</v>
+      </c>
+      <c r="N16">
+        <v>281.147285</v>
+      </c>
+      <c r="O16">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="P16">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="Q16">
+        <v>10.93366172071389</v>
+      </c>
+      <c r="R16">
+        <v>98.402955486425</v>
+      </c>
+      <c r="S16">
+        <v>0.009563813768712152</v>
+      </c>
+      <c r="T16">
+        <v>0.009563813768712152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.350005</v>
+      </c>
+      <c r="I17">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J17">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>86.782706</v>
+      </c>
+      <c r="N17">
+        <v>260.348118</v>
+      </c>
+      <c r="O17">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="P17">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="Q17">
+        <v>10.12479367117667</v>
+      </c>
+      <c r="R17">
+        <v>91.12314304059001</v>
+      </c>
+      <c r="S17">
+        <v>0.008856286538874797</v>
+      </c>
+      <c r="T17">
+        <v>0.008856286538874797</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.350005</v>
+      </c>
+      <c r="I18">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J18">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>15.04680066666666</v>
+      </c>
+      <c r="N18">
+        <v>45.14040199999999</v>
+      </c>
+      <c r="O18">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="P18">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="Q18">
+        <v>1.755485155778889</v>
+      </c>
+      <c r="R18">
+        <v>15.79936640201</v>
+      </c>
+      <c r="S18">
+        <v>0.001535545321637381</v>
+      </c>
+      <c r="T18">
+        <v>0.001535545321637381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1166683333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.350005</v>
+      </c>
+      <c r="I19">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="J19">
+        <v>0.02392069323639076</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N19">
+        <v>17.501651</v>
+      </c>
+      <c r="O19">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P19">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q19">
+        <v>0.6806294842505557</v>
+      </c>
+      <c r="R19">
+        <v>6.125665358255001</v>
+      </c>
+      <c r="S19">
+        <v>0.0005953553163744578</v>
+      </c>
+      <c r="T19">
+        <v>0.0005953553163744578</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.742587</v>
+      </c>
+      <c r="I20">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J20">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.92603766666666</v>
+      </c>
+      <c r="N20">
+        <v>71.77811299999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="P20">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="Q20">
+        <v>13.89773406648122</v>
+      </c>
+      <c r="R20">
+        <v>125.079606598331</v>
+      </c>
+      <c r="S20">
+        <v>0.01215652576548112</v>
+      </c>
+      <c r="T20">
+        <v>0.01215652576548112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.742587</v>
+      </c>
+      <c r="I21">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J21">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.093559666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.280679</v>
+      </c>
+      <c r="O21">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="P21">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="Q21">
+        <v>5.282106286285889</v>
+      </c>
+      <c r="R21">
+        <v>47.538956576573</v>
+      </c>
+      <c r="S21">
+        <v>0.004620325936449733</v>
+      </c>
+      <c r="T21">
+        <v>0.004620325936449733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.742587</v>
+      </c>
+      <c r="I22">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J22">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>93.71576166666667</v>
+      </c>
+      <c r="N22">
+        <v>281.147285</v>
+      </c>
+      <c r="O22">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="P22">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="Q22">
+        <v>54.43595599181056</v>
+      </c>
+      <c r="R22">
+        <v>489.9236039262951</v>
+      </c>
+      <c r="S22">
+        <v>0.04761582704183884</v>
+      </c>
+      <c r="T22">
+        <v>0.04761582704183884</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.742587</v>
+      </c>
+      <c r="I23">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J23">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>86.782706</v>
+      </c>
+      <c r="N23">
+        <v>260.348118</v>
+      </c>
+      <c r="O23">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="P23">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="Q23">
+        <v>50.40880510014068</v>
+      </c>
+      <c r="R23">
+        <v>453.679245901266</v>
+      </c>
+      <c r="S23">
+        <v>0.04409322664224288</v>
+      </c>
+      <c r="T23">
+        <v>0.04409322664224287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.742587</v>
+      </c>
+      <c r="I24">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J24">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.04680066666666</v>
+      </c>
+      <c r="N24">
+        <v>45.14040199999999</v>
+      </c>
+      <c r="O24">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="P24">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="Q24">
+        <v>8.740119744441555</v>
+      </c>
+      <c r="R24">
+        <v>78.661077699974</v>
+      </c>
+      <c r="S24">
+        <v>0.007645094542638305</v>
+      </c>
+      <c r="T24">
+        <v>0.007645094542638305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.5808623333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.742587</v>
+      </c>
+      <c r="I25">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="J25">
+        <v>0.119095124540285</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N25">
+        <v>17.501651</v>
+      </c>
+      <c r="O25">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P25">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q25">
+        <v>3.388683279015223</v>
+      </c>
+      <c r="R25">
+        <v>30.49814951113701</v>
+      </c>
+      <c r="S25">
+        <v>0.002964124611634169</v>
+      </c>
+      <c r="T25">
+        <v>0.002964124611634169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.024446</v>
+      </c>
+      <c r="H26">
+        <v>9.073338</v>
+      </c>
+      <c r="I26">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J26">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>23.92603766666666</v>
+      </c>
+      <c r="N26">
+        <v>71.77811299999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="P26">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="Q26">
+        <v>72.36300891679932</v>
+      </c>
+      <c r="R26">
+        <v>651.2670802511939</v>
+      </c>
+      <c r="S26">
+        <v>0.06329684955524109</v>
+      </c>
+      <c r="T26">
+        <v>0.06329684955524111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.024446</v>
+      </c>
+      <c r="H27">
+        <v>9.073338</v>
+      </c>
+      <c r="I27">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J27">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>9.093559666666666</v>
+      </c>
+      <c r="N27">
+        <v>27.280679</v>
+      </c>
+      <c r="O27">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="P27">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="Q27">
+        <v>27.50298015961133</v>
+      </c>
+      <c r="R27">
+        <v>247.526821436502</v>
+      </c>
+      <c r="S27">
+        <v>0.02405720855921394</v>
+      </c>
+      <c r="T27">
+        <v>0.02405720855921394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.024446</v>
+      </c>
+      <c r="H28">
+        <v>9.073338</v>
+      </c>
+      <c r="I28">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J28">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>93.71576166666667</v>
+      </c>
+      <c r="N28">
+        <v>281.147285</v>
+      </c>
+      <c r="O28">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="P28">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="Q28">
+        <v>283.4382605097033</v>
+      </c>
+      <c r="R28">
+        <v>2550.94434458733</v>
+      </c>
+      <c r="S28">
+        <v>0.247927072163481</v>
+      </c>
+      <c r="T28">
+        <v>0.2479270721634811</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.024446</v>
+      </c>
+      <c r="H29">
+        <v>9.073338</v>
+      </c>
+      <c r="I29">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J29">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>86.782706</v>
+      </c>
+      <c r="N29">
+        <v>260.348118</v>
+      </c>
+      <c r="O29">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="P29">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="Q29">
+        <v>262.469608030876</v>
+      </c>
+      <c r="R29">
+        <v>2362.226472277884</v>
+      </c>
+      <c r="S29">
+        <v>0.2295855236126946</v>
+      </c>
+      <c r="T29">
+        <v>0.2295855236126946</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.024446</v>
+      </c>
+      <c r="H30">
+        <v>9.073338</v>
+      </c>
+      <c r="I30">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J30">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>15.04680066666666</v>
+      </c>
+      <c r="N30">
+        <v>45.14040199999999</v>
+      </c>
+      <c r="O30">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="P30">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="Q30">
+        <v>45.50823608909732</v>
+      </c>
+      <c r="R30">
+        <v>409.5741248018759</v>
+      </c>
+      <c r="S30">
+        <v>0.03980663624100991</v>
+      </c>
+      <c r="T30">
+        <v>0.03980663624100991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.024446</v>
+      </c>
+      <c r="H31">
+        <v>9.073338</v>
+      </c>
+      <c r="I31">
+        <v>0.6201069554094576</v>
+      </c>
+      <c r="J31">
+        <v>0.6201069554094577</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N31">
+        <v>17.501651</v>
+      </c>
+      <c r="O31">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P31">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q31">
+        <v>17.64426612011534</v>
+      </c>
+      <c r="R31">
+        <v>158.798395081038</v>
+      </c>
+      <c r="S31">
+        <v>0.01543366527781714</v>
+      </c>
+      <c r="T31">
+        <v>0.01543366527781714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.573502</v>
+      </c>
+      <c r="I32">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J32">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>23.92603766666666</v>
+      </c>
+      <c r="N32">
+        <v>71.77811299999999</v>
+      </c>
+      <c r="O32">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="P32">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="Q32">
+        <v>4.573876817969555</v>
+      </c>
+      <c r="R32">
+        <v>41.16489136172599</v>
+      </c>
+      <c r="S32">
+        <v>0.004000828560958479</v>
+      </c>
+      <c r="T32">
+        <v>0.004000828560958478</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.573502</v>
+      </c>
+      <c r="I33">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J33">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>9.093559666666666</v>
+      </c>
+      <c r="N33">
+        <v>27.280679</v>
+      </c>
+      <c r="O33">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="P33">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="Q33">
+        <v>1.738391551984222</v>
+      </c>
+      <c r="R33">
+        <v>15.645523967858</v>
+      </c>
+      <c r="S33">
+        <v>0.001520593327739616</v>
+      </c>
+      <c r="T33">
+        <v>0.001520593327739616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.573502</v>
+      </c>
+      <c r="I34">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J34">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>93.71576166666667</v>
+      </c>
+      <c r="N34">
+        <v>281.147285</v>
+      </c>
+      <c r="O34">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="P34">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="Q34">
+        <v>17.91539224911889</v>
+      </c>
+      <c r="R34">
+        <v>161.23853024207</v>
+      </c>
+      <c r="S34">
+        <v>0.01567082277105743</v>
+      </c>
+      <c r="T34">
+        <v>0.01567082277105743</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.573502</v>
+      </c>
+      <c r="I35">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J35">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>86.782706</v>
+      </c>
+      <c r="N35">
+        <v>260.348118</v>
+      </c>
+      <c r="O35">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="P35">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="Q35">
+        <v>16.59001848547067</v>
+      </c>
+      <c r="R35">
+        <v>149.310166369236</v>
+      </c>
+      <c r="S35">
+        <v>0.01451150138603098</v>
+      </c>
+      <c r="T35">
+        <v>0.01451150138603098</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.573502</v>
+      </c>
+      <c r="I36">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J36">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>15.04680066666666</v>
+      </c>
+      <c r="N36">
+        <v>45.14040199999999</v>
+      </c>
+      <c r="O36">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="P36">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="Q36">
+        <v>2.876456758644888</v>
+      </c>
+      <c r="R36">
+        <v>25.888110827804</v>
+      </c>
+      <c r="S36">
+        <v>0.002516073521948776</v>
+      </c>
+      <c r="T36">
+        <v>0.002516073521948776</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.1911673333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.573502</v>
+      </c>
+      <c r="I37">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="J37">
+        <v>0.03919534124500099</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N37">
+        <v>17.501651</v>
+      </c>
+      <c r="O37">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P37">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q37">
+        <v>1.115247983533556</v>
+      </c>
+      <c r="R37">
+        <v>10.037231851802</v>
+      </c>
+      <c r="S37">
+        <v>0.0009755216772657084</v>
+      </c>
+      <c r="T37">
+        <v>0.0009755216772657083</v>
       </c>
     </row>
   </sheetData>
